--- a/src/main/resources/bot_info.xlsx
+++ b/src/main/resources/bot_info.xlsx
@@ -705,7 +705,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,14 +741,14 @@
       <c r="B2" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1.0</v>
       </c>
-      <c r="E2" t="n" s="0">
-        <v>1.0</v>
+      <c r="E2" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/bot_info.xlsx
+++ b/src/main/resources/bot_info.xlsx
@@ -747,8 +747,8 @@
       <c r="D2" s="0" t="n">
         <v>1.0</v>
       </c>
-      <c r="E2" s="0">
-        <v>0</v>
+      <c r="E2" s="0" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
